--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120217.9407962118</v>
+        <v>21285011.54733042</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120217.9407962118</v>
+        <v>21285011.54733042</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41883.68066391534</v>
+        <v>5269550.172080433</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41883.68066391534</v>
+        <v>5269550.172080433</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417733838.867148</v>
+        <v>51594010.51447803</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11024.44421285799</v>
+        <v>1110830.631769453</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21518.8478475917</v>
+        <v>2141229.798585525</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32032.15250439073</v>
+        <v>3171408.586865412</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42532.65961857029</v>
+        <v>4195570.345561072</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52921.97124378625</v>
+        <v>5239413.750117208</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63333.05404815412</v>
+        <v>6281815.837074003</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73764.34469091911</v>
+        <v>7341726.111564708</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84100.65070117112</v>
+        <v>8400298.647570573</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94763.9861152287</v>
+        <v>9416211.62810724</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104853.3744423773</v>
+        <v>10524661.94000649</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114751.0638124953</v>
+        <v>11646700.70654834</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124635.2060828713</v>
+        <v>12767218.56952735</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134492.887803009</v>
+        <v>13887736.43250643</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>145472.5753073512</v>
+        <v>14847736.63237146</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>157848.7936794845</v>
+        <v>15585357.79846096</v>
       </c>
     </row>
   </sheetData>
